--- a/mathTransformed/HMPSTT_(2016-06-12)_65_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-06-12)_65_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -484,7 +489,8 @@
           <t>ABDULAZEEZ M JALGERI</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>581118</t>
         </is>
@@ -513,6 +519,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>S F D G H S HattimatturSavnur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -540,6 +551,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>B R E T English Medium High SchoolMotebennurByadgi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -567,6 +583,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>S V R P G H S KadashettihalliHangal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -594,6 +615,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>NTP GHS BudapanahalliByadgi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -621,6 +647,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H P S No – 8 Nagendranamatti</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -648,6 +679,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Sri Halasiddeshwar High SchoolHalageriRanebennur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -675,6 +711,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt. H P S Haleritti</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -702,6 +743,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Sri Basaveshwara High SchoolKodiyalRanebenur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -729,6 +775,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Govt. High School MantrodiSavanur</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -756,6 +807,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Shri Maruthi High School Hirekerur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -783,6 +839,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S ChatraByadgi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -810,6 +871,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S HalemanaggiSavanur</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -839,6 +905,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Govt. High SchoolGangapuraRanebennuru</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -864,7 +935,8 @@
           <t>HANCHINAL M D</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Kalidas High School Haveri</t>
         </is>
@@ -893,6 +965,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>S K H S KotihalRanebennur</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -920,6 +997,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S HirebidariRanebennur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -947,6 +1029,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>NCJC High SchoolHangal</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -974,6 +1061,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S NoolageriHirekerur</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1001,6 +1093,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S Basapur</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1029,6 +1126,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Hirekerur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1056,6 +1158,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>SJJM Govt PU College (H S) Byadgi</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1083,6 +1190,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G U H S MasurHirekerur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1110,6 +1222,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>S S H S BalambeedHangal</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1137,6 +1254,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Govt. High School HotanahalliShiggoan</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1161,7 +1283,8 @@
           <t>MAHESHWARA M MAGANUR</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>MAHESHWARA M MAGANU</t>
         </is>
@@ -1179,6 +1302,11 @@
         </is>
       </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>G H S ItagiRanebennur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Haveri</t>
         </is>
@@ -1207,6 +1335,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>M D R S MaranabeeduHangal</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1234,6 +1367,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>S J J M Govt. PU CollegeByadgi</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1261,6 +1399,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S KopparsikoppaHanagal</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1288,6 +1431,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S HoovinashigliSavanur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1315,6 +1463,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H P S Hounsi</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1342,6 +1495,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>S G B D H S ShidenurBayadagi</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1369,6 +1527,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Govt Urdu High SchoolChikkerurHirekerur</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1396,6 +1559,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H P S RamagondanahalliByadgi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1423,6 +1591,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Govt. High School ShirabadagiSavanur</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1450,6 +1623,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Sri Manjunath H S</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1479,6 +1657,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Govt. High SchoolKalasurSavanur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1506,6 +1689,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Govt. High School kyalkondaShiggaon</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1533,6 +1721,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>P V S High SchoolChikkerurHirekerur</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1560,6 +1753,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>Vidyabhrati High School Savanur</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1589,6 +1787,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Shri Kantesh High School KadaramandalagiByadagi</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1616,6 +1819,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S BasavanalaShiggaon</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1643,6 +1851,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>S M H SchoolGhalapujiByadagi</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1670,6 +1883,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Govt. Higher Primary School Naganur</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1697,6 +1915,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>Govt. High SchoolMakanurRanebennur</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1724,6 +1947,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G H S NesviHirekerur</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1751,6 +1979,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H P S HalemannangiSavanur</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1780,6 +2013,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G H S Kabbur</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1809,6 +2047,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Sri Maruti High School KodHirekerur</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1836,6 +2079,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Raj – RajeshwariHigh SchoolRanebennur</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1863,6 +2111,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Govt. High SchoolKummurByadgi</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1890,6 +2143,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>G H S ShirgodHangal</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1914,7 +2172,8 @@
           <t>SHAKUNTHALA M CHINDI</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>SHAKUNTHALA M CHIND</t>
         </is>
@@ -1932,6 +2191,11 @@
         </is>
       </c>
       <c r="F57" t="inlineStr">
+        <is>
+          <t>G H S HullattiHirekerur</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>Haveri</t>
         </is>
@@ -1960,6 +2224,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>G H S HosahalliSavanur</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -1987,6 +2256,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>S A H S GhalapujiBydagi</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -2014,6 +2288,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>S S M H SchoolGuddadamallapurByadgi</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -2041,6 +2320,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>S G R High SchoolSavanur</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -2068,6 +2352,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>G H S HireanajiByadgi</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -2095,6 +2384,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>Govt. High SchoolKeravadiByadgi</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -2122,6 +2416,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>Govt. High SchoolMasanagiByadagi</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -2149,6 +2448,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>G H S HunagundShiggaon</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -2176,6 +2480,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>S S P U College TumminakattiRanebennur</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -2203,6 +2512,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>G H P S Guddada ChannapurShiggaon</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -2230,6 +2544,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>SJJM Govt PU CollegeByadgi</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -2258,6 +2577,11 @@
         </is>
       </c>
       <c r="F69" t="inlineStr">
+        <is>
+          <t>SSSPUC (HS) SunakalbidriRanebennuru</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>Haveri</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-06-12)_65_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-06-12)_65_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,6 @@
           <t>ABDULAZEEZ M JALGERI</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>581118</t>
@@ -935,10 +934,9 @@
           <t>HANCHINAL M D</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Kalidas High School Haveri</t>
+          <t>Haveri</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1281,6 @@
           <t>MAHESHWARA M MAGANUR</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>MAHESHWARA M MAGANU</t>
@@ -2172,7 +2169,6 @@
           <t>SHAKUNTHALA M CHINDI</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>SHAKUNTHALA M CHIND</t>
